--- a/controle.xlsx
+++ b/controle.xlsx
@@ -1,41 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aline\Downloads\cadDash\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aline\Downloads\cadDash\teste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B123229-4571-406A-A9C1-0F34B6471970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C21AA4-7C53-4F7E-9C08-A65FFAD21DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15480" yWindow="1050" windowWidth="15600" windowHeight="11040" tabRatio="929" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15480" yWindow="1050" windowWidth="15600" windowHeight="11040" tabRatio="929" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alcadas" sheetId="1" r:id="rId1"/>
     <sheet name="email" sheetId="2" r:id="rId2"/>
     <sheet name="comite" sheetId="3" r:id="rId3"/>
-    <sheet name="transferencias" sheetId="6" r:id="rId4"/>
-    <sheet name="ficticios" sheetId="4" r:id="rId5"/>
-    <sheet name="limites" sheetId="5" r:id="rId6"/>
-    <sheet name="diario" sheetId="9" r:id="rId7"/>
-    <sheet name="divergentes" sheetId="10" r:id="rId8"/>
-    <sheet name="meta" sheetId="11" r:id="rId9"/>
-    <sheet name="ratings" sheetId="7" r:id="rId10"/>
-    <sheet name="rt" sheetId="8" r:id="rId11"/>
+    <sheet name="transferencias" sheetId="4" r:id="rId4"/>
+    <sheet name="ficticios" sheetId="5" r:id="rId5"/>
+    <sheet name="limites" sheetId="6" r:id="rId6"/>
+    <sheet name="diario" sheetId="7" r:id="rId7"/>
+    <sheet name="divergentes" sheetId="8" r:id="rId8"/>
+    <sheet name="meta" sheetId="9" r:id="rId9"/>
+    <sheet name="ratings" sheetId="10" r:id="rId10"/>
+    <sheet name="rt" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="54">
   <si>
     <t>DATA</t>
   </si>
@@ -52,13 +47,136 @@
     <t>EMISSOR</t>
   </si>
   <si>
+    <t>RESPONDIDO</t>
+  </si>
+  <si>
+    <t>13:00:00</t>
+  </si>
+  <si>
+    <t>Paula Sônia</t>
+  </si>
+  <si>
+    <t>[SOLICITAÇÃO DE ALÇADA] Enel</t>
+  </si>
+  <si>
+    <t>Enel</t>
+  </si>
+  <si>
+    <t>15:00:00</t>
+  </si>
+  <si>
+    <t>Fayga</t>
+  </si>
+  <si>
+    <t>[SOLICITAÇÃO DE ALÇADA] Equatorial</t>
+  </si>
+  <si>
+    <t>Equatorial</t>
+  </si>
+  <si>
+    <t>17:00:00</t>
+  </si>
+  <si>
+    <t>Lídia Santos</t>
+  </si>
+  <si>
+    <t>[SOLICITAÇÃO DE ALÇADA] Agibank</t>
+  </si>
+  <si>
+    <t>Agibank</t>
+  </si>
+  <si>
+    <t>18:00:00</t>
+  </si>
+  <si>
+    <t>Felipe Farah</t>
+  </si>
+  <si>
+    <t>[SOLICITAÇÃO DE ALÇADA] Magazine Luiza</t>
+  </si>
+  <si>
+    <t>Magazine Luiza</t>
+  </si>
+  <si>
+    <t>[SOLICITAÇÃO DE ALÇADA] CCR</t>
+  </si>
+  <si>
+    <t>CCR</t>
+  </si>
+  <si>
+    <t>[SOLICITAÇÃO DE ALÇADA] CTEEP</t>
+  </si>
+  <si>
+    <t>CTEEP</t>
+  </si>
+  <si>
+    <t>MESA</t>
+  </si>
+  <si>
+    <t>CNPJ</t>
+  </si>
+  <si>
+    <t>GRUPO</t>
+  </si>
+  <si>
     <t>EVENTO</t>
   </si>
   <si>
-    <t>MESA</t>
-  </si>
-  <si>
-    <t>ATA</t>
+    <t>CADASTRADO</t>
+  </si>
+  <si>
+    <t>[APROVAÇÃO] Pemex</t>
+  </si>
+  <si>
+    <t>Pemex</t>
+  </si>
+  <si>
+    <t>Abertura de Limite</t>
+  </si>
+  <si>
+    <t>[APROVAÇÃO] Enel</t>
+  </si>
+  <si>
+    <t>Alteração</t>
+  </si>
+  <si>
+    <t>[APROVAÇÃO] Equatorial</t>
+  </si>
+  <si>
+    <t>Flexibilização</t>
+  </si>
+  <si>
+    <t>[APROVAÇÃO] Agibank</t>
+  </si>
+  <si>
+    <t>Prorrogação</t>
+  </si>
+  <si>
+    <t>[APROVAÇÃO] Magazine Luiza</t>
+  </si>
+  <si>
+    <t>[APROVAÇÃO] CCR</t>
+  </si>
+  <si>
+    <t>[APROVAÇÃO] CTEEP</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>Crédito Core</t>
+  </si>
+  <si>
+    <t>Crédito Estruturado</t>
+  </si>
+  <si>
+    <t>[SOLICITAÇÃO DE ALÇADA] Pemex</t>
+  </si>
+  <si>
+    <t>Criação de Fictício do Fulano</t>
+  </si>
+  <si>
+    <t>Criação de Fictício do Beltrano</t>
   </si>
   <si>
     <t>EMISSOR/TICKER</t>
@@ -67,108 +185,6 @@
     <t>DESCRICAO</t>
   </si>
   <si>
-    <t>Felipe Farah</t>
-  </si>
-  <si>
-    <t>Paula Sônia</t>
-  </si>
-  <si>
-    <t>Fayga</t>
-  </si>
-  <si>
-    <t>Lídia Santos</t>
-  </si>
-  <si>
-    <t>[SOLICITAÇÃO DE ALÇADA] Pemex</t>
-  </si>
-  <si>
-    <t>[SOLICITAÇÃO DE ALÇADA] Enel</t>
-  </si>
-  <si>
-    <t>[SOLICITAÇÃO DE ALÇADA] Equatorial</t>
-  </si>
-  <si>
-    <t>[SOLICITAÇÃO DE ALÇADA] Agibank</t>
-  </si>
-  <si>
-    <t>[SOLICITAÇÃO DE ALÇADA] Magazine Luiza</t>
-  </si>
-  <si>
-    <t>[SOLICITAÇÃO DE ALÇADA] CCR</t>
-  </si>
-  <si>
-    <t>[SOLICITAÇÃO DE ALÇADA] CTEEP</t>
-  </si>
-  <si>
-    <t>Pemex</t>
-  </si>
-  <si>
-    <t>Enel</t>
-  </si>
-  <si>
-    <t>Equatorial</t>
-  </si>
-  <si>
-    <t>Agibank</t>
-  </si>
-  <si>
-    <t>Magazine Luiza</t>
-  </si>
-  <si>
-    <t>CCR</t>
-  </si>
-  <si>
-    <t>CTEEP</t>
-  </si>
-  <si>
-    <t>[APROVAÇÃO] Pemex</t>
-  </si>
-  <si>
-    <t>[APROVAÇÃO] Enel</t>
-  </si>
-  <si>
-    <t>[APROVAÇÃO] Equatorial</t>
-  </si>
-  <si>
-    <t>[APROVAÇÃO] Agibank</t>
-  </si>
-  <si>
-    <t>[APROVAÇÃO] Magazine Luiza</t>
-  </si>
-  <si>
-    <t>[APROVAÇÃO] CCR</t>
-  </si>
-  <si>
-    <t>[APROVAÇÃO] CTEEP</t>
-  </si>
-  <si>
-    <t>Abertura de Limite</t>
-  </si>
-  <si>
-    <t>Alteração</t>
-  </si>
-  <si>
-    <t>Flexibilização</t>
-  </si>
-  <si>
-    <t>Prorrogação</t>
-  </si>
-  <si>
-    <t>Crédito Core</t>
-  </si>
-  <si>
-    <t>Crédito Estruturado</t>
-  </si>
-  <si>
-    <t>link_ata</t>
-  </si>
-  <si>
-    <t>Criação de Fictício do Fulano</t>
-  </si>
-  <si>
-    <t>Criação de Fictício do Beltrano</t>
-  </si>
-  <si>
     <t>Falta Rating no Crims</t>
   </si>
   <si>
@@ -176,28 +192,16 @@
   </si>
   <si>
     <t>Cadastro nas plans de cadastro</t>
-  </si>
-  <si>
-    <t>RESPONDIDO</t>
-  </si>
-  <si>
-    <t>CNPJ</t>
-  </si>
-  <si>
-    <t>GRUPO</t>
-  </si>
-  <si>
-    <t>CADASTRADO</t>
-  </si>
-  <si>
-    <t>STATUS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +217,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -222,7 +231,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -230,11 +239,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -248,6 +272,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,185 +556,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>47</v>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>45383</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.5</v>
+      <c r="A2" s="6">
+        <v>45384</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>45387</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>45384</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.54166666666666663</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>45398</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>45387</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.625</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>45384</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>45387</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>45398</v>
       </c>
-      <c r="B5" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>45384</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>45387</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.625</v>
+      <c r="B7" t="s">
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>45398</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.70833333333333337</v>
+      <c r="A8" s="6">
+        <v>45384</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>45384</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34EC6B27-2BF8-4088-8203-7203E8C44982}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -734,7 +735,7 @@
         <v>0.5</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -745,7 +746,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -756,7 +757,7 @@
         <v>0.625</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -767,7 +768,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -778,7 +779,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -787,7 +788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF8FC98-5C32-44B4-8C2F-D5A9D660B3C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -815,7 +816,7 @@
         <v>0.5</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -826,7 +827,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -837,7 +838,7 @@
         <v>0.625</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -848,7 +849,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -859,7 +860,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -868,11 +869,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E1F2BC-3B82-46AC-9C60-9A7023B84F51}">
-  <dimension ref="A1:K9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -882,10 +883,10 @@
     <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -899,28 +900,25 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45383</v>
       </c>
@@ -928,19 +926,19 @@
         <v>0.5</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45384</v>
       </c>
@@ -948,19 +946,19 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45387</v>
       </c>
@@ -968,19 +966,19 @@
         <v>0.625</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45398</v>
       </c>
@@ -988,19 +986,19 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45384</v>
       </c>
@@ -1008,19 +1006,19 @@
         <v>0.75</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45387</v>
       </c>
@@ -1028,19 +1026,19 @@
         <v>0.625</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>45398</v>
       </c>
@@ -1048,19 +1046,19 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
     </row>
   </sheetData>
@@ -1069,11 +1067,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C8CC9A-C127-4C73-9870-6E99FF50C4B3}">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1084,180 +1082,153 @@
     <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.44140625" customWidth="1"/>
     <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45383</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45384</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45387</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
         <v>37</v>
       </c>
-      <c r="H4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45398</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45384</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45387</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>45398</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
         <v>37</v>
       </c>
-      <c r="H8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>45384</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
         <v>37</v>
-      </c>
-      <c r="H9" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1266,7 +1237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0217E91-9883-4ECA-80FE-096531DED922}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1295,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1306,10 +1277,10 @@
         <v>0.5</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -1321,10 +1292,10 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1335,10 +1306,10 @@
         <v>0.625</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1347,7 +1318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C86B024-B80D-403F-86DB-2FB4533CA6AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1379,7 +1350,7 @@
         <v>0.5</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1390,7 +1361,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1401,7 +1372,7 @@
         <v>0.625</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1412,7 +1383,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1423,7 +1394,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1432,10 +1403,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3438BC-B918-405E-92D0-A656F2971011}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -1451,10 +1422,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1462,10 +1433,10 @@
         <v>45383</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1473,10 +1444,10 @@
         <v>45384</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1484,10 +1455,10 @@
         <v>45387</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1495,10 +1466,10 @@
         <v>45398</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1506,10 +1477,10 @@
         <v>45384</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1517,10 +1488,10 @@
         <v>45387</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1528,10 +1499,10 @@
         <v>45398</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1540,7 +1511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A7FBFD-2724-4BD0-8BB4-0110BED7F60C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1568,7 +1539,7 @@
         <v>0.5</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1579,7 +1550,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1590,7 +1561,7 @@
         <v>0.625</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1601,7 +1572,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1612,7 +1583,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1621,7 +1592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921C74F3-1B0B-48F3-BC02-5E19C5D67B76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1649,7 +1620,7 @@
         <v>0.5</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1660,7 +1631,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1671,7 +1642,7 @@
         <v>0.625</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1682,7 +1653,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1693,7 +1664,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1702,7 +1673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EB1AB4-7869-4388-A960-BFA1CA3E865D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1730,7 +1701,7 @@
         <v>0.5</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1741,7 +1712,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1752,7 +1723,7 @@
         <v>0.625</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1763,7 +1734,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1774,7 +1745,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
